--- a/项目规划表 .xlsx
+++ b/项目规划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>秦思佳项目规划</t>
   </si>
@@ -63,7 +63,10 @@
     <t>用户注册时验证用户名是否重复、用户登录时信息对比、修改密码</t>
   </si>
   <si>
-    <t>更改用户状态、用户点赞、游记点赞数排序、游记时间排序</t>
+    <t>更改用户状态、用户点赞、游记点赞数排序、时间排序</t>
+  </si>
+  <si>
+    <t>更改游记状态、游记的新增删除和查询、新增游记评论、游记查询、查询所有评论</t>
   </si>
   <si>
     <t>注意：</t>
@@ -86,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -156,25 +159,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +258,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +305,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,163 +449,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,15 +520,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,6 +588,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -623,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1358,7 +1361,9 @@
       <c r="A17" s="4">
         <v>43505</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1403,12 +1408,12 @@
     </row>
     <row r="23" ht="18.75" spans="2:2">
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1418,7 +1423,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1428,7 +1433,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1438,7 +1443,7 @@
     </row>
     <row r="27" ht="22.5" spans="2:7">
       <c r="B27" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
